--- a/studygo/day04/程序生成的/送礼1.xlsx
+++ b/studygo/day04/程序生成的/送礼1.xlsx
@@ -348,23 +348,21 @@
       <c r="A2" t="str">
         <v>送礼-文案与流光检查</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
       <c r="C2" t="str">
-        <v>&lt;p&gt;单个&lt;/p&gt;</v>
+        <v>单个</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;
-	A赠送B礼物C，数量D，赠送成功，房主与房间内用户查看公屏区域显示文案&lt;/p&gt;
+        <v>
+	A赠送B礼物C，数量D，赠送成功，房主与房间内用户查看公屏区域显示文案
 </v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;
-	A用户昵称+&amp;quot;给&amp;quot;+B用户昵称+&amp;quot;送了&amp;quot;+C礼物+&amp;quot;X&amp;quot;+D数量&lt;/p&gt;
+        <v>
+	A用户昵称+给+B用户昵称+送了+C礼物+X+D数量
 </v>
       </c>
     </row>
@@ -373,14 +371,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，有流光显示，房主与房间内用户查看查看流光&lt;/p&gt;
+        <v>
+	继步骤
+	1，有流光显示，房主与房间内用户查看查看流光
 </v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;
-	流光文案：A用户+&amp;quot;送&amp;quot;+C礼物+&amp;quot;X&amp;quot;+D数量+连送x次数 流光显示2S&lt;/p&gt;
+        <v>
+	流光文案：A用户+送+C礼物+X+D数量+连送x次数 流光显示2S
 </v>
       </c>
     </row>
@@ -389,20 +387,16 @@
       <c r="A5" t="str">
         <v>送礼-全麦下取消全部头像</v>
       </c>
-      <c r="B5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B5" t="str"/>
+      <c r="C5" t="str"/>
       <c r="D5" t="str">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;用户点击礼物拉起礼物栏，全麦下点击全部用户头像&lt;/p&gt;</v>
+        <v>用户点击礼物拉起礼物栏，全麦下点击全部用户头像</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;全部头像被置灰显示未选中状态&lt;/p&gt;</v>
+        <v>全部头像被置灰显示未选中状态</v>
       </c>
     </row>
     <row r="6">
@@ -410,10 +404,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;选择礼物点击赠送&lt;/p&gt;</v>
+        <v>选择礼物点击赠送</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;提示“请选择想送礼的用户”&lt;/p&gt;</v>
+        <v>提示“请选择想送礼的用户”</v>
       </c>
     </row>
     <row r="7"/>
@@ -421,23 +415,19 @@
       <c r="A8" t="str">
         <v>送礼-礼物栏头像排序</v>
       </c>
-      <c r="B8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B8" t="str"/>
+      <c r="C8" t="str"/>
       <c r="D8" t="str">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;
-	用户点击礼物按钮，拉起礼物栏，查看用户头像排序&lt;/p&gt;
+        <v>
+	用户点击礼物按钮，拉起礼物栏，查看用户头像排序
 </v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;
-	房主排位第一&lt;span style="color: rgb(255, 255, 255);"&gt;，标识为房主&lt;/span&gt;，其余用户按照2-9顺序排序，头像里显示排序编号&lt;/p&gt;
+        <v>
+	房主排位第一，标识为房主，其余用户按照2-9顺序排序，头像里显示排序编号
 </v>
       </c>
     </row>
@@ -446,20 +436,16 @@
       <c r="A10" t="str">
         <v>送礼-礼物栏头像显示</v>
       </c>
-      <c r="B10" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C10" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B10" t="str"/>
+      <c r="C10" t="str"/>
       <c r="D10" t="str">
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;用户点击礼物按钮，拉起礼物栏，查看用户头像，未超出一屏&lt;/p&gt;</v>
+        <v>用户点击礼物按钮，拉起礼物栏，查看用户头像，未超出一屏</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;用户头像显示正确，不可右滑显示更多&lt;/p&gt;</v>
+        <v>用户头像显示正确，不可右滑显示更多</v>
       </c>
     </row>
     <row r="11">
@@ -467,10 +453,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;用户点击礼物按钮，拉起礼物栏，查看用户头像，超出一屏&lt;/p&gt;</v>
+        <v>用户点击礼物按钮，拉起礼物栏，查看用户头像，超出一屏</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;可右滑显示更多用户头像&lt;/p&gt;</v>
+        <v>可右滑显示更多用户头像</v>
       </c>
     </row>
     <row r="12">
@@ -478,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;2，右滑查看更多头像后，左滑&lt;/p&gt;</v>
+        <v>继步骤2，右滑查看更多头像后，左滑</v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;滑动正常&lt;/p&gt;</v>
+        <v>滑动正常</v>
       </c>
     </row>
     <row r="13"/>
@@ -489,23 +475,19 @@
       <c r="A14" t="str">
         <v>送礼-全麦状态切换检查</v>
       </c>
-      <c r="B14" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C14" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B14" t="str"/>
+      <c r="C14" t="str"/>
       <c r="D14" t="str">
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;
-	送全麦状态下，切换非全麦状态，选择B用户后送礼，关闭礼物栏再次拉起礼物栏&lt;/p&gt;
+        <v>
+	送全麦状态下，切换非全麦状态，选择B用户后送礼，关闭礼物栏再次拉起礼物栏
 </v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;
-	显示非全麦状态并显示选中B用户&lt;/p&gt;
+        <v>
+	显示非全麦状态并显示选中B用户
 </v>
       </c>
     </row>
@@ -514,13 +496,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;
-	非全麦状态下，切换全麦状态并赠送礼物，关闭礼物栏再拉起礼物栏查看状态&lt;/p&gt;
+        <v>
+	非全麦状态下，切换全麦状态并赠送礼物，关闭礼物栏再拉起礼物栏查看状态
 </v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;
-	显示全麦状态并显示选中所有用户&lt;/p&gt;
+        <v>
+	显示全麦状态并显示选中所有用户
 </v>
       </c>
     </row>
@@ -529,20 +511,16 @@
       <c r="A17" t="str">
         <v>送礼-全麦状态切换后退出房间检查</v>
       </c>
-      <c r="B17" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C17" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B17" t="str"/>
+      <c r="C17" t="str"/>
       <c r="D17" t="str">
         <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;全麦状态下切换非全麦状态下，后退出房间，再次进入房间&lt;/p&gt;</v>
+        <v>全麦状态下切换非全麦状态下，后退出房间，再次进入房间</v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;显示全麦状态&lt;/p&gt;</v>
+        <v>显示全麦状态</v>
       </c>
     </row>
     <row r="18"/>
@@ -556,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="str">
-        <v>&lt;p&gt;
-	全麦状态下，保留A用户是选中状态，其他用户是未选中状态，选中的用户下麦&lt;/p&gt;
+        <v>
+	全麦状态下，保留A用户是选中状态，其他用户是未选中状态，选中的用户下麦
 </v>
       </c>
       <c r="F19" t="str">
-        <v>&lt;p&gt;
-	全麦状态恢复显示选中全部用户&lt;/p&gt;
+        <v>
+	全麦状态恢复显示选中全部用户
 </v>
       </c>
     </row>
@@ -571,13 +549,13 @@
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;p&gt;
-	全麦状态下，保留A，B用户是选中状态，其他用户是未选中状态，选中的用户全部离开房间&lt;/p&gt;
+        <v>
+	全麦状态下，保留A，B用户是选中状态，其他用户是未选中状态，选中的用户全部离开房间
 </v>
       </c>
       <c r="F20" t="str">
-        <v>&lt;p&gt;
-	全麦状态恢复显示选中全部用户&lt;/p&gt;
+        <v>
+	全麦状态恢复显示选中全部用户
 </v>
       </c>
     </row>
@@ -586,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="str">
-        <v>&lt;p&gt;非全麦状态下，选中的用户下麦&lt;/p&gt;</v>
+        <v>非全麦状态下，选中的用户下麦</v>
       </c>
       <c r="F21" t="str">
-        <v>&lt;p&gt;恢复全麦状态，显示选中全部用户&lt;/p&gt;</v>
+        <v>恢复全麦状态，显示选中全部用户</v>
       </c>
     </row>
     <row r="22">
@@ -597,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="E22" t="str">
-        <v>&lt;p&gt;非全麦状态下，选中的用户离开房间&lt;/p&gt;</v>
+        <v>非全麦状态下，选中的用户离开房间</v>
       </c>
       <c r="F22" t="str">
-        <v>&lt;p&gt;恢复全麦状态，显示选中全部用户&lt;/p&gt;</v>
+        <v>恢复全麦状态，显示选中全部用户</v>
       </c>
     </row>
     <row r="23"/>
@@ -608,20 +586,16 @@
       <c r="A24" t="str">
         <v>送礼-数量检查</v>
       </c>
-      <c r="B24" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C24" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B24" t="str"/>
+      <c r="C24" t="str"/>
       <c r="D24" t="str">
         <v>1</v>
       </c>
       <c r="E24" t="str">
-        <v>&lt;p&gt;用户点击礼物按钮，拉起礼物栏，查看礼物数量&lt;/p&gt;</v>
+        <v>用户点击礼物按钮，拉起礼物栏，查看礼物数量</v>
       </c>
       <c r="F24" t="str">
-        <v>&lt;p&gt;默认显示数量1&lt;/p&gt;</v>
+        <v>默认显示数量1</v>
       </c>
     </row>
     <row r="25">
@@ -629,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>&lt;p&gt;点击数量栏切换其他数量10/38/66/188/520/999/1314&lt;/p&gt;</v>
+        <v>点击数量栏切换其他数量10/38/66/188/520/999/1314</v>
       </c>
       <c r="F25" t="str">
-        <v>&lt;p&gt;数量切换成功&lt;/p&gt;</v>
+        <v>数量切换成功</v>
       </c>
     </row>
     <row r="26"/>
@@ -640,20 +614,16 @@
       <c r="A27" t="str">
         <v>送礼-赠送不同数量礼物</v>
       </c>
-      <c r="B27" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C27" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B27" t="str"/>
+      <c r="C27" t="str"/>
       <c r="D27" t="str">
         <v>1</v>
       </c>
       <c r="E27" t="str">
-        <v>&lt;p&gt;用户赠送礼物1数量&lt;/p&gt;</v>
+        <v>用户赠送礼物1数量</v>
       </c>
       <c r="F27" t="str">
-        <v>&lt;p&gt;礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确&lt;/p&gt;</v>
+        <v>礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确</v>
       </c>
     </row>
     <row r="28">
@@ -661,10 +631,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <v>&lt;p&gt;用户赠送礼物10数量&lt;/p&gt;</v>
+        <v>用户赠送礼物10数量</v>
       </c>
       <c r="F28" t="str">
-        <v>&lt;p&gt;礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确&lt;/p&gt;</v>
+        <v>礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确</v>
       </c>
     </row>
     <row r="29">
@@ -672,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="E29" t="str">
-        <v>&lt;p&gt;用户赠送礼物38数量&lt;/p&gt;</v>
+        <v>用户赠送礼物38数量</v>
       </c>
       <c r="F29" t="str">
-        <v>&lt;p&gt;礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确&lt;/p&gt;</v>
+        <v>礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确</v>
       </c>
     </row>
     <row r="30">
@@ -683,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="E30" t="str">
-        <v>&lt;p&gt;用户赠送礼物66数量&lt;/p&gt;</v>
+        <v>用户赠送礼物66数量</v>
       </c>
       <c r="F30" t="str">
-        <v>&lt;p&gt;礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确&lt;/p&gt;</v>
+        <v>礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确</v>
       </c>
     </row>
     <row r="31">
@@ -694,10 +664,10 @@
         <v>5</v>
       </c>
       <c r="E31" t="str">
-        <v>&lt;p&gt;用户赠送礼物188数量&lt;/p&gt;</v>
+        <v>用户赠送礼物188数量</v>
       </c>
       <c r="F31" t="str">
-        <v>&lt;p&gt;礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确&lt;/p&gt;</v>
+        <v>礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确</v>
       </c>
     </row>
     <row r="32">
@@ -705,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="E32" t="str">
-        <v>&lt;p&gt;用户赠送礼物520数量&lt;/p&gt;</v>
+        <v>用户赠送礼物520数量</v>
       </c>
       <c r="F32" t="str">
-        <v>&lt;p&gt;礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确&lt;/p&gt;</v>
+        <v>礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确</v>
       </c>
     </row>
     <row r="33">
@@ -716,10 +686,10 @@
         <v>7</v>
       </c>
       <c r="E33" t="str">
-        <v>&lt;p&gt;用户赠送礼物999数量&lt;/p&gt;</v>
+        <v>用户赠送礼物999数量</v>
       </c>
       <c r="F33" t="str">
-        <v>&lt;p&gt;礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确&lt;/p&gt;</v>
+        <v>礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确</v>
       </c>
     </row>
     <row r="34">
@@ -727,10 +697,10 @@
         <v>8</v>
       </c>
       <c r="E34" t="str">
-        <v>&lt;p&gt;用户赠送礼物1314数量&lt;/p&gt;</v>
+        <v>用户赠送礼物1314数量</v>
       </c>
       <c r="F34" t="str">
-        <v>&lt;p&gt;礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确&lt;/p&gt;</v>
+        <v>礼物显示赠送对应数量，用户接收的礼物为对应数量，钻石扣除正确</v>
       </c>
     </row>
     <row r="35"/>
@@ -738,27 +708,23 @@
       <c r="A36" t="str">
         <v>送礼-数量文案检查</v>
       </c>
-      <c r="B36" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C36" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B36" t="str"/>
+      <c r="C36" t="str"/>
       <c r="D36" t="str">
         <v>1</v>
       </c>
       <c r="E36" t="str">
-        <v>&lt;p&gt;拉起礼物栏，点击数量栏查看对应数量文案&lt;/p&gt;</v>
+        <v>拉起礼物栏，点击数量栏查看对应数量文案</v>
       </c>
       <c r="F36" t="str">
-        <v>&lt;p&gt;1:一心一意
+        <v>1:一心一意
 10：十全十美
 38：全心全意
 66:六六大顺
 188：大吉大利
 520：我爱你
 999：天长地久
-1314：一生一世&lt;/p&gt;</v>
+1314：一生一世</v>
       </c>
     </row>
     <row r="37"/>
@@ -766,23 +732,19 @@
       <c r="A38" t="str">
         <v>送礼-赠送礼物时麦上无人</v>
       </c>
-      <c r="B38" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C38" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B38" t="str"/>
+      <c r="C38" t="str"/>
       <c r="D38" t="str">
         <v>1</v>
       </c>
       <c r="E38" t="str">
-        <v>&lt;p&gt;
-	房主退出房间且麦上无用户，观众点击礼物栏，选择礼物赠送&lt;/p&gt;
+        <v>
+	房主退出房间且麦上无用户，观众点击礼物栏，选择礼物赠送
 </v>
       </c>
       <c r="F38" t="str">
-        <v>&lt;p&gt;
-	送礼成功，成功送礼给房主&lt;/p&gt;
+        <v>
+	送礼成功，成功送礼给房主
 </v>
       </c>
     </row>
@@ -791,20 +753,16 @@
       <c r="A40" t="str">
         <v>送礼-送礼时用户退出麦序</v>
       </c>
-      <c r="B40" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C40" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B40" t="str"/>
+      <c r="C40" t="str"/>
       <c r="D40" t="str">
         <v>1</v>
       </c>
       <c r="E40" t="str">
-        <v>&lt;p&gt;观众拉起礼物栏，麦上非房主用户A退出房间&lt;/p&gt;</v>
+        <v>观众拉起礼物栏，麦上非房主用户A退出房间</v>
       </c>
       <c r="F40" t="str">
-        <v>&lt;p&gt;礼物栏中自动刷新不显示该用户头像&lt;/p&gt;</v>
+        <v>礼物栏中自动刷新不显示该用户头像</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +770,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="str">
-        <v>&lt;p&gt;观众拉起礼物栏，麦上非房主用户A下麦&lt;/p&gt;</v>
+        <v>观众拉起礼物栏，麦上非房主用户A下麦</v>
       </c>
       <c r="F41" t="str">
-        <v>&lt;p&gt;礼物栏中自动刷新不显示该用户头像&lt;/p&gt;</v>
+        <v>礼物栏中自动刷新不显示该用户头像</v>
       </c>
     </row>
     <row r="42">
@@ -823,13 +781,13 @@
         <v>3</v>
       </c>
       <c r="E42" t="str">
-        <v>&lt;p&gt;
-	观众拉起礼物栏，房主用户退出房间&lt;/p&gt;
+        <v>
+	观众拉起礼物栏，房主用户退出房间
 </v>
       </c>
       <c r="F42" t="str">
-        <v>&lt;p&gt;
-	礼物栏中依然显示主播头像&lt;/p&gt;
+        <v>
+	礼物栏中依然显示主播头像
 </v>
       </c>
     </row>
@@ -838,13 +796,13 @@
         <v>4</v>
       </c>
       <c r="E43" t="str">
-        <v>&lt;p&gt;
-	全麦模式下赠送礼物&lt;/p&gt;
+        <v>
+	全麦模式下赠送礼物
 </v>
       </c>
       <c r="F43" t="str">
-        <v>&lt;p&gt;
-	礼物赠送成功,不在麦上的用户未接收到正常接收礼物，其他麦上用户可正常接收礼物&lt;/p&gt;
+        <v>
+	礼物赠送成功,不在麦上的用户未接收到正常接收礼物，其他麦上用户可正常接收礼物
 </v>
       </c>
     </row>
@@ -853,23 +811,19 @@
       <c r="A45" t="str">
         <v>送礼-麦上用户送礼</v>
       </c>
-      <c r="B45" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C45" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B45" t="str"/>
+      <c r="C45" t="str"/>
       <c r="D45" t="str">
         <v>1</v>
       </c>
       <c r="E45" t="str">
-        <v>&lt;p&gt;
-	麦上拉起礼物栏，查看用户区域&lt;/p&gt;
+        <v>
+	麦上拉起礼物栏，查看用户区域
 </v>
       </c>
       <c r="F45" t="str">
-        <v>&lt;p&gt;
-	显示除自己之外的用户头像，房主排在第一，其余按照座位的1-8先后排序显示，礼物板的用户头像序号为2-9&lt;/p&gt;
+        <v>
+	显示除自己之外的用户头像，房主排在第一，其余按照座位的1-8先后排序显示，礼物板的用户头像序号为2-9
 </v>
       </c>
     </row>
@@ -878,21 +832,21 @@
         <v>2</v>
       </c>
       <c r="E46" t="str">
-        <v>&lt;p&gt;主播拉起礼物栏，查看用户区域&lt;/p&gt;</v>
+        <v>主播拉起礼物栏，查看用户区域</v>
       </c>
       <c r="F46" t="str">
-        <v>&lt;p&gt;显示除自己之外的用户头像，用户按照座位的1-8排序显示&lt;/p&gt;</v>
+        <v>显示除自己之外的用户头像，用户按照座位的1-8排序显示</v>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="str">
         <v>2</v>
       </c>
-      <c r="E47" t="str">
-        <v>&lt;p&gt; 选择用户赠送礼物&lt;/p&gt;</v>
+      <c r="E47" t="str" xml:space="preserve">
+        <v> 选择用户赠送礼物</v>
       </c>
       <c r="F47" t="str">
-        <v>&lt;p&gt;礼物赠送成功&lt;/p&gt;</v>
+        <v>礼物赠送成功</v>
       </c>
     </row>
     <row r="48"/>
@@ -900,25 +854,20 @@
       <c r="A49" t="str">
         <v>送礼-弱网下送礼</v>
       </c>
-      <c r="B49" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C49" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B49" t="str"/>
+      <c r="C49" t="str"/>
       <c r="D49" t="str">
         <v>1</v>
       </c>
       <c r="E49" t="str">
-        <v>&lt;p&gt;
-	弱网情况，用户拉起礼物栏，有用户上下麦，点击赠送礼物&lt;/p&gt;
+        <v>
+	弱网情况，用户拉起礼物栏，有用户上下麦，点击赠送礼物
 </v>
       </c>
       <c r="F49" t="str">
-        <v>&lt;p&gt;
-	及时刷新礼物栏用户头像，用户赠送礼物不成功&lt;/p&gt;
-&lt;p&gt;
-	或赠送礼物成功，选中用语可正常接收到礼物&lt;/p&gt;
+        <v>
+	及时刷新礼物栏用户头像，用户赠送礼物不成功
+	或赠送礼物成功，选中用语可正常接收到礼物
 </v>
       </c>
     </row>
@@ -933,10 +882,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="str">
-        <v>&lt;p&gt;赠送礼物，钻石余额不足x&lt;=1000，确认去充值&lt;/p&gt;</v>
+        <v>赠送礼物，钻石余额不足x</v>
       </c>
       <c r="F51" t="str">
-        <v>&lt;p&gt;跳转到充值页面，显示选中1000档位&lt;/p&gt;</v>
+        <v>跳转到充值页面，显示选中1000档位</v>
       </c>
     </row>
     <row r="52">
@@ -944,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="E52" t="str">
-        <v>&lt;p&gt;赠送礼物，余额不足1000&lt;x&lt;=6000，确认去充值&lt;/p&gt;</v>
+        <v>赠送礼物，余额不足1000</v>
       </c>
       <c r="F52" t="str">
-        <v>&lt;p&gt;跳转到充值页面，显示选中6000档位&lt;/p&gt;</v>
+        <v>跳转到充值页面，显示选中6000档位</v>
       </c>
     </row>
     <row r="53">
@@ -955,10 +904,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="str">
-        <v>&lt;p&gt;赠送礼物，余额不足6000&lt;x&lt;=30000，确认去充值&lt;/p&gt;</v>
+        <v>赠送礼物，余额不足6000</v>
       </c>
       <c r="F53" t="str">
-        <v>&lt;p&gt;跳转到充值页面，显示选中30000档位&lt;/p&gt;</v>
+        <v>跳转到充值页面，显示选中30000档位</v>
       </c>
     </row>
     <row r="54">
@@ -966,10 +915,10 @@
         <v>4</v>
       </c>
       <c r="E54" t="str">
-        <v>&lt;p&gt;赠送礼物，余额不足30000&lt;x&lt;=68000，确认去充值&lt;/p&gt;</v>
+        <v>赠送礼物，余额不足30000</v>
       </c>
       <c r="F54" t="str">
-        <v>&lt;p&gt;跳转到充值页面，显示选中68000档位&lt;/p&gt;</v>
+        <v>跳转到充值页面，显示选中68000档位</v>
       </c>
     </row>
     <row r="55">
@@ -977,10 +926,10 @@
         <v>5</v>
       </c>
       <c r="E55" t="str">
-        <v>&lt;p&gt;赠送礼物，余额不足68000&lt;x&lt;=98000，确认去充值&lt;/p&gt;</v>
+        <v>赠送礼物，余额不足68000</v>
       </c>
       <c r="F55" t="str">
-        <v>&lt;p&gt;跳转到充值页面，显示选中98000档位&lt;/p&gt;</v>
+        <v>跳转到充值页面，显示选中98000档位</v>
       </c>
     </row>
     <row r="56">
@@ -988,10 +937,10 @@
         <v>6</v>
       </c>
       <c r="E56" t="str">
-        <v>&lt;p&gt;赠送礼物，余额不足98000&lt;x&lt;=298000，确认去充值&lt;/p&gt;</v>
+        <v>赠送礼物，余额不足98000</v>
       </c>
       <c r="F56" t="str">
-        <v>&lt;p&gt;跳转到充值页面，显示选中298000档位&lt;/p&gt;</v>
+        <v>跳转到充值页面，显示选中298000档位</v>
       </c>
     </row>
     <row r="57"/>
@@ -999,20 +948,16 @@
       <c r="A58" t="str">
         <v>送礼-多条流光</v>
       </c>
-      <c r="B58" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C58" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B58" t="str"/>
+      <c r="C58" t="str"/>
       <c r="D58" t="str">
         <v>1</v>
       </c>
       <c r="E58" t="str">
-        <v>&lt;p&gt;A用户赠送礼物a,B赠送礼物b,触发流光，查看流光显示&lt;/p&gt;</v>
+        <v>A用户赠送礼物a,B赠送礼物b,触发流光，查看流光显示</v>
       </c>
       <c r="F58" t="str">
-        <v>&lt;p&gt;按照时间先后依次显示ab流光，流光显示2S后消失&lt;/p&gt;</v>
+        <v>按照时间先后依次显示ab流光，流光显示2S后消失</v>
       </c>
     </row>
     <row r="59">
@@ -1020,10 +965,10 @@
         <v>2</v>
       </c>
       <c r="E59" t="str">
-        <v>&lt;p&gt;A用户赠送礼物a,B赠送礼物b,C赠送礼物c,触发流光，房间内用户查看流光显示&lt;/p&gt;</v>
+        <v>A用户赠送礼物a,B赠送礼物b,C赠送礼物c,触发流光，房间内用户查看流光显示</v>
       </c>
       <c r="F59" t="str">
-        <v>&lt;p&gt;按照时间先后依次abc显示流光，每次最多显示2条流光，每条显示2S后消失&lt;/p&gt;</v>
+        <v>按照时间先后依次abc显示流光，每次最多显示2条流光，每条显示2S后消失</v>
       </c>
     </row>
     <row r="60"/>
@@ -1031,20 +976,16 @@
       <c r="A61" t="str">
         <v>送礼-连送礼物流光</v>
       </c>
-      <c r="B61" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C61" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B61" t="str"/>
+      <c r="C61" t="str"/>
       <c r="D61" t="str">
         <v>1</v>
       </c>
       <c r="E61" t="str">
-        <v>&lt;p&gt;A用户赠送礼物a,连击赠送&lt;/p&gt;</v>
+        <v>A用户赠送礼物a,连击赠送</v>
       </c>
       <c r="F61" t="str">
-        <v>&lt;p&gt;流光中礼物数量叠加，流光不消失&lt;/p&gt;</v>
+        <v>流光中礼物数量叠加，流光不消失</v>
       </c>
     </row>
     <row r="62">
@@ -1052,10 +993,10 @@
         <v>2</v>
       </c>
       <c r="E62" t="str">
-        <v>&lt;p&gt;连击赠送结束&lt;/p&gt;</v>
+        <v>连击赠送结束</v>
       </c>
       <c r="F62" t="str">
-        <v>&lt;p&gt;流光显示2S后消失&lt;/p&gt;</v>
+        <v>流光显示2S后消失</v>
       </c>
     </row>
     <row r="63"/>
@@ -1063,20 +1004,16 @@
       <c r="A64" t="str">
         <v>送礼-流光未消失继续赠送</v>
       </c>
-      <c r="B64" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C64" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B64" t="str"/>
+      <c r="C64" t="str"/>
       <c r="D64" t="str">
         <v>1</v>
       </c>
       <c r="E64" t="str">
-        <v>&lt;p&gt;A用户赠送礼物a,赠送完成后触发流光，未点击连击&lt;/p&gt;</v>
+        <v>A用户赠送礼物a,赠送完成后触发流光，未点击连击</v>
       </c>
       <c r="F64" t="str">
-        <v>&lt;p&gt;流光显示中&lt;/p&gt;</v>
+        <v>流光显示中</v>
       </c>
     </row>
     <row r="65">
@@ -1084,10 +1021,10 @@
         <v>2</v>
       </c>
       <c r="E65" t="str">
-        <v>&lt;p&gt;2S内拉起礼物栏赠送同一礼物&lt;/p&gt;</v>
+        <v>2S内拉起礼物栏赠送同一礼物</v>
       </c>
       <c r="F65" t="str">
-        <v>&lt;p&gt;流光继续显示2S后消失&lt;/p&gt;</v>
+        <v>流光继续显示2S后消失</v>
       </c>
     </row>
     <row r="66"/>
@@ -1095,20 +1032,16 @@
       <c r="A67" t="str">
         <v>送礼-赠送不同礼物流光</v>
       </c>
-      <c r="B67" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C67" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B67" t="str"/>
+      <c r="C67" t="str"/>
       <c r="D67" t="str">
         <v>1</v>
       </c>
       <c r="E67" t="str">
-        <v>&lt;p&gt;A用户赠送礼物a,赠送完成后触发流光，未点击连击&lt;/p&gt;</v>
+        <v>A用户赠送礼物a,赠送完成后触发流光，未点击连击</v>
       </c>
       <c r="F67" t="str">
-        <v>&lt;p&gt;流光显示中&lt;/p&gt;</v>
+        <v>流光显示中</v>
       </c>
     </row>
     <row r="68">
@@ -1116,12 +1049,12 @@
         <v>2</v>
       </c>
       <c r="E68" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，2S内拉起礼物了赠送不同礼物&lt;/p&gt;</v>
+        <v>继步骤1，2S内拉起礼物了赠送不同礼物</v>
       </c>
       <c r="F68" t="str">
-        <v>&lt;p&gt;同时显示其他礼物流光
+        <v>同时显示其他礼物流光
 第一条流光显示到达2s后消失
-第二条流光显示到达2S消失&lt;/p&gt;</v>
+第二条流光显示到达2S消失</v>
       </c>
     </row>
     <row r="69"/>
@@ -1130,8 +1063,8 @@
         <v>送礼-单次流光等级显示</v>
       </c>
       <c r="B70" t="str">
-        <v>&lt;p&gt;
-	1000钻石=1元&lt;/p&gt;
+        <v>
+	1000钻石=1元
 </v>
       </c>
       <c r="C70" t="str"/>
@@ -1139,15 +1072,14 @@
         <v>1</v>
       </c>
       <c r="E70" t="str">
-        <v>&lt;p&gt;
-	单次达到金额[0, 6.6)元之间&lt;/p&gt;
+        <v>
+	单次达到金额[0, 6.6)元之间
 </v>
       </c>
       <c r="F70" t="str">
-        <v>&lt;p&gt;
-	流光显示第一档&lt;/p&gt;
-&lt;p&gt;
-	黑色背景流光&lt;/p&gt;
+        <v>
+	流光显示第一档
+	黑色背景流光
 </v>
       </c>
     </row>
@@ -1156,15 +1088,14 @@
         <v>2</v>
       </c>
       <c r="E71" t="str">
-        <v>&lt;p&gt;
-	单次达到金额[6.6, 30)元之间&lt;/p&gt;
+        <v>
+	单次达到金额[6.6, 30)元之间
 </v>
       </c>
       <c r="F71" t="str">
-        <v>&lt;p&gt;
-	流光显示第二档&lt;/p&gt;
-&lt;p&gt;
-	​蓝色背景流光&lt;/p&gt;
+        <v>
+	流光显示第二档
+	​蓝色背景流光
 </v>
       </c>
     </row>
@@ -1173,17 +1104,14 @@
         <v>3</v>
       </c>
       <c r="E72" t="str">
-        <v>&lt;p&gt;
-	单次达到金额[30, 131.4)元之间&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
+        <v>
+	单次达到金额[30, 131.4)元之间
 </v>
       </c>
       <c r="F72" t="str">
-        <v>&lt;p&gt;
-	流光显示第三档&lt;/p&gt;
-&lt;p&gt;
-	粉红色背景流光&lt;/p&gt;
+        <v>
+	流光显示第三档
+	粉红色背景流光
 </v>
       </c>
     </row>
@@ -1192,17 +1120,14 @@
         <v>4</v>
       </c>
       <c r="E73" t="str">
-        <v>&lt;p&gt;
-	单次达到金额131.4及以上&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
+        <v>
+	单次达到金额131.4及以上
 </v>
       </c>
       <c r="F73" t="str">
-        <v>&lt;p&gt;
-	流光显示第四档&lt;/p&gt;
-&lt;p&gt;
-	紫色背景流光&lt;/p&gt;
+        <v>
+	流光显示第四档
+	紫色背景流光
 </v>
       </c>
     </row>
@@ -1211,25 +1136,20 @@
       <c r="A75" t="str">
         <v>送礼-连击流光等级显示</v>
       </c>
-      <c r="B75" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C75" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B75" t="str"/>
+      <c r="C75" t="str"/>
       <c r="D75" t="str">
         <v>1</v>
       </c>
       <c r="E75" t="str">
-        <v>&lt;p&gt;
-	单次赠送礼物达到金额[0, 6.6)元之间，连击后金额超出当前档位&lt;/p&gt;
+        <v>
+	单次赠送礼物达到金额[0, 6.6)元之间，连击后金额超出当前档位
 </v>
       </c>
       <c r="F75" t="str">
-        <v>&lt;p&gt;
-	流光显示第一档&lt;/p&gt;
-&lt;p&gt;
-	黑色背景流光&lt;/p&gt;
+        <v>
+	流光显示第一档
+	黑色背景流光
 </v>
       </c>
     </row>
@@ -1238,17 +1158,14 @@
         <v>2</v>
       </c>
       <c r="E76" t="str">
-        <v>&lt;p&gt;
-	单次赠送礼物达到金额[6.6, 30)元之间，连击后金额超出当前档位&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
+        <v>
+	单次赠送礼物达到金额[6.6, 30)元之间，连击后金额超出当前档位
 </v>
       </c>
       <c r="F76" t="str">
-        <v>&lt;p&gt;
-	流光显示第二档&lt;/p&gt;
-&lt;p&gt;
-	​蓝色背景流光&lt;/p&gt;
+        <v>
+	流光显示第二档
+	​蓝色背景流光
 </v>
       </c>
     </row>
@@ -1257,17 +1174,14 @@
         <v>3</v>
       </c>
       <c r="E77" t="str">
-        <v>&lt;p&gt;
-	单次赠送礼物达到金额[30, 131.4)元之间，连击后金额超出当前档位&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
+        <v>
+	单次赠送礼物达到金额[30, 131.4)元之间，连击后金额超出当前档位
 </v>
       </c>
       <c r="F77" t="str">
-        <v>&lt;p&gt;
-	流光显示第三档&lt;/p&gt;
-&lt;p&gt;
-	粉色背景流光&lt;/p&gt;
+        <v>
+	流光显示第三档
+	粉色背景流光
 </v>
       </c>
     </row>
@@ -1276,15 +1190,14 @@
         <v>4</v>
       </c>
       <c r="E78" t="str">
-        <v>&lt;p&gt;
-	单次赠送礼物达到金额131.4及以上，连击后查看流光&lt;/p&gt;
+        <v>
+	单次赠送礼物达到金额131.4及以上，连击后查看流光
 </v>
       </c>
       <c r="F78" t="str">
-        <v>&lt;p&gt;
-	流光显示第四档&lt;/p&gt;
-&lt;p&gt;
-	紫色背景流光&lt;/p&gt;
+        <v>
+	流光显示第四档
+	紫色背景流光
 </v>
       </c>
     </row>
@@ -1293,23 +1206,19 @@
       <c r="A80" t="str">
         <v>送礼-礼物倒计时后重新赠送</v>
       </c>
-      <c r="B80" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C80" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B80" t="str"/>
+      <c r="C80" t="str"/>
       <c r="D80" t="str">
         <v>1</v>
       </c>
       <c r="E80" t="str">
-        <v>&lt;p&gt;
-	礼物赠送成功，倒计时结束，再次同一礼物赠送&lt;/p&gt;
+        <v>
+	礼物赠送成功，倒计时结束，再次同一礼物赠送
 </v>
       </c>
       <c r="F80" t="str">
-        <v>&lt;p&gt;
-	流光显示正常，流光中数量重新计算&lt;/p&gt;
+        <v>
+	流光显示正常，流光中数量重新计算
 </v>
       </c>
     </row>
@@ -1318,20 +1227,16 @@
       <c r="A82" t="str">
         <v>送礼-礼物连击时余额不足</v>
       </c>
-      <c r="B82" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C82" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B82" t="str"/>
+      <c r="C82" t="str"/>
       <c r="D82" t="str">
         <v>1</v>
       </c>
       <c r="E82" t="str">
-        <v>&lt;p&gt;礼物赠送连击时，余额不足&lt;/p&gt;</v>
+        <v>礼物赠送连击时，余额不足</v>
       </c>
       <c r="F82" t="str">
-        <v>&lt;p&gt;弹窗提示余额不足去充值&lt;/p&gt;</v>
+        <v>弹窗提示余额不足去充值</v>
       </c>
     </row>
     <row r="83"/>
@@ -1339,24 +1244,20 @@
       <c r="A84" t="str">
         <v>送礼-选择多个数量赠送</v>
       </c>
-      <c r="B84" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C84" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B84" t="str"/>
+      <c r="C84" t="str"/>
       <c r="D84" t="str">
         <v>1</v>
       </c>
       <c r="E84" t="str">
-        <v>&lt;p&gt;
-	A赠送礼物a,数量选择10/38/66/188/520/999/131&lt;br /&gt;
-	4，赠送后点击连击，触发流光,房间内用户查看&lt;/p&gt;
+        <v>
+	A赠送礼物a,数量选择10/38/66/188/520/999/131
+	4，赠送后点击连击，触发流光,房间内用户查看
 </v>
       </c>
       <c r="F84" t="str">
-        <v>&lt;p&gt;
-	流光中显示A用户+&amp;quot;送了&amp;quot;+&amp;quot;XXX&amp;quot;+a礼物+D数量+&amp;ldquo;连送&amp;rdquo;+连击数&lt;/p&gt;
+        <v>
+	流光中显示A用户+送了+XXX+a礼物+D数量+连送+连击数
 </v>
       </c>
     </row>
@@ -1365,20 +1266,16 @@
       <c r="A86" t="str">
         <v>送礼-赠送不同金额大礼物</v>
       </c>
-      <c r="B86" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C86" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B86" t="str"/>
+      <c r="C86" t="str"/>
       <c r="D86" t="str">
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>&lt;p&gt;赠送金额价值520大礼物&lt;/p&gt;</v>
+        <v>赠送金额价值520大礼物</v>
       </c>
       <c r="F86" t="str">
-        <v>&lt;p&gt;显示金额520大礼物特效流光&lt;/p&gt;</v>
+        <v>显示金额520大礼物特效流光</v>
       </c>
     </row>
     <row r="87">
@@ -1386,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <v>&lt;p&gt;赠送金额价值1314大礼物&lt;/p&gt;</v>
+        <v>赠送金额价值1314大礼物</v>
       </c>
       <c r="F87" t="str">
-        <v>&lt;p&gt;显示金额1314大礼物特效流光&lt;/p&gt;</v>
+        <v>显示金额1314大礼物特效流光</v>
       </c>
     </row>
     <row r="88">
@@ -1397,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="str">
-        <v>&lt;p&gt;赠送金额价值2000大礼物&lt;/p&gt;</v>
+        <v>赠送金额价值2000大礼物</v>
       </c>
       <c r="F88" t="str">
-        <v>&lt;p&gt;显示金额2000大礼物特效流光&lt;/p&gt;</v>
+        <v>显示金额2000大礼物特效流光</v>
       </c>
     </row>
     <row r="89"/>
@@ -1408,23 +1305,19 @@
       <c r="A90" t="str">
         <v>送礼-赠送多个大礼物特效</v>
       </c>
-      <c r="B90" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C90" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B90" t="str"/>
+      <c r="C90" t="str"/>
       <c r="D90" t="str">
         <v>1</v>
       </c>
       <c r="E90" t="str">
-        <v>&lt;p&gt;
-	A赠送多个（a个）大礼物，赠送成功（要点击连送或者送多人）&lt;/p&gt;
+        <v>
+	A赠送多个（a个）大礼物，赠送成功（要点击连送或者送多人）
 </v>
       </c>
       <c r="F90" t="str">
-        <v>&lt;p&gt;
-	一次只显示一个大礼物特效 共显示a次大礼物特效&lt;/p&gt;
+        <v>
+	一次只显示一个大礼物特效 共显示a次大礼物特效
 </v>
       </c>
     </row>
@@ -1433,10 +1326,10 @@
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <v>&lt;p&gt;ABC同时赠送大礼物共a个，赠送成功&lt;/p&gt;</v>
+        <v>ABC同时赠送大礼物共a个，赠送成功</v>
       </c>
       <c r="F91" t="str">
-        <v>&lt;p&gt;一次只显示一个大礼物特效，根据服务器判断先后顺序依次显示，共显示a次大礼物特效&lt;/p&gt;</v>
+        <v>一次只显示一个大礼物特效，根据服务器判断先后顺序依次显示，共显示a次大礼物特效</v>
       </c>
     </row>
     <row r="92"/>
@@ -1444,23 +1337,19 @@
       <c r="A93" t="str">
         <v>送礼-同时赠送大礼物与普通礼物</v>
       </c>
-      <c r="B93" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C93" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B93" t="str"/>
+      <c r="C93" t="str"/>
       <c r="D93" t="str">
         <v>1</v>
       </c>
       <c r="E93" t="str">
-        <v>&lt;p&gt;
-	A赠送普通礼物，触发普通流光 B赠送大礼物，触发大礼物特效&lt;/p&gt;
+        <v>
+	A赠送普通礼物，触发普通流光 B赠送大礼物，触发大礼物特效
 </v>
       </c>
       <c r="F93" t="str">
-        <v>&lt;p&gt;
-	按照时间先后顺序依次显示对应礼物流光+特效&lt;/p&gt;
+        <v>
+	按照时间先后顺序依次显示对应礼物流光+特效
 </v>
       </c>
     </row>
@@ -1475,13 +1364,13 @@
         <v>1</v>
       </c>
       <c r="E95" t="str">
-        <v>&lt;p&gt;用户A赠送礼物到达2000后触发全服广播查看广播文案&lt;/p&gt;</v>
+        <v>用户A赠送礼物到达2000后触发全服广播查看广播文案</v>
       </c>
       <c r="F95" t="str">
-        <v>&lt;p&gt;A昵称在房间名送出 礼物名*数量
+        <v>A昵称在房间名送出 礼物名*数量
 其他房间内文案后显示跳转箭头，本房间内不显示箭头
 送礼用户昵称限制4个字，超出…显示
-房间名限制10个字&lt;/p&gt;</v>
+房间名限制10个字</v>
       </c>
     </row>
     <row r="96"/>
@@ -1495,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="E97" t="str">
-        <v>&lt;p&gt;多个用户赠送礼物到达2000后触发全服广播，全平台用户查看房间&lt;/p&gt;</v>
+        <v>多个用户赠送礼物到达2000后触发全服广播，全平台用户查看房间</v>
       </c>
       <c r="F97" t="str">
-        <v>&lt;p&gt;一次只显示一条广播，根据时间先后顺序依次显示完成&lt;/p&gt;</v>
+        <v>一次只显示一条广播，根据时间先后顺序依次显示完成</v>
       </c>
     </row>
     <row r="98"/>
@@ -1506,20 +1395,16 @@
       <c r="A99" t="str">
         <v>送礼-不同平台用户送礼</v>
       </c>
-      <c r="B99" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C99" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B99" t="str"/>
+      <c r="C99" t="str"/>
       <c r="D99" t="str">
         <v>1</v>
       </c>
       <c r="E99" t="str">
-        <v>&lt;p&gt;ios用户给android用户赠送礼物&lt;/p&gt;</v>
+        <v>ios用户给android用户赠送礼物</v>
       </c>
       <c r="F99" t="str">
-        <v>&lt;p&gt;android用户可正常接收到礼物&lt;/p&gt;</v>
+        <v>android用户可正常接收到礼物</v>
       </c>
     </row>
     <row r="100">
@@ -1527,10 +1412,10 @@
         <v>2</v>
       </c>
       <c r="E100" t="str">
-        <v>&lt;p&gt;android用户给ios用户赠送礼物&lt;/p&gt;</v>
+        <v>android用户给ios用户赠送礼物</v>
       </c>
       <c r="F100" t="str">
-        <v>&lt;p&gt;ios用户可正常接收礼物&lt;/p&gt;</v>
+        <v>ios用户可正常接收礼物</v>
       </c>
     </row>
     <row r="101"/>
@@ -1539,8 +1424,8 @@
         <v>语音房-授权失败开音再次授权（手机支持再次授权）（不适用）</v>
       </c>
       <c r="B102" t="str">
-        <v>&lt;p&gt;
-	iOS-fultter版本首次请求权限，拒绝后会提示让用户自行设置&lt;/p&gt;
+        <v>
+	iOS-fultter版本首次请求权限，拒绝后会提示让用户自行设置
 </v>
       </c>
       <c r="C102" t="str"/>
@@ -1548,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="E102" t="str">
-        <v>&lt;p&gt;
-	手机支持再次授权，授权失败后点击房间中礼物旁扬声器&lt;/p&gt;
+        <v>
+	手机支持再次授权，授权失败后点击房间中礼物旁扬声器
 </v>
       </c>
       <c r="F102" t="str">
-        <v>&lt;p&gt;
-	弹出授权弹框&lt;/p&gt;
+        <v>
+	弹出授权弹框
 </v>
       </c>
     </row>
@@ -1563,14 +1448,14 @@
         <v>2</v>
       </c>
       <c r="E103" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击取消&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击取消
 </v>
       </c>
       <c r="F103" t="str">
-        <v>&lt;p&gt;
-	授权失败，扬声器显示为关闭状态，无法听见房间内其他用户声音&lt;/p&gt;
+        <v>
+	授权失败，扬声器显示为关闭状态，无法听见房间内其他用户声音
 </v>
       </c>
     </row>
@@ -1579,14 +1464,14 @@
         <v>3</v>
       </c>
       <c r="E104" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击确定&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击确定
 </v>
       </c>
       <c r="F104" t="str">
-        <v>&lt;p&gt;
-	授权成功，喇叭切换显示打开状态，可正常听见房间内声音&lt;/p&gt;
+        <v>
+	授权成功，喇叭切换显示打开状态，可正常听见房间内声音
 </v>
       </c>
     </row>
@@ -1601,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="E106" t="str">
-        <v>&lt;p&gt;
-	手机不支持再次授权，授权失败后点击房间中礼物旁扬声器&lt;/p&gt;
+        <v>
+	手机不支持再次授权，授权失败后点击房间中礼物旁扬声器
 </v>
       </c>
       <c r="F106" t="str">
-        <v>&lt;p&gt;
-	弹出引导开启提示弹窗 文案：&amp;quot;追读小说&amp;quot;需要你的麦克风权限方可开启声音，请至设置中打开 下方显示：取消和确定选项&lt;/p&gt;
+        <v>
+	弹出引导开启提示弹窗 文案：追读小说需要你的麦克风权限方可开启声音，请至设置中打开 下方显示：取消和确定选项
 </v>
       </c>
     </row>
@@ -1616,10 +1501,10 @@
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击取消&lt;/p&gt;</v>
+        <v>继步骤1，点击取消</v>
       </c>
       <c r="F107" t="str">
-        <v>&lt;p&gt;关闭弹窗，未授权成功，无法听见房间内其他用户声音&lt;/p&gt;</v>
+        <v>关闭弹窗，未授权成功，无法听见房间内其他用户声音</v>
       </c>
     </row>
     <row r="108">
@@ -1627,14 +1512,14 @@
         <v>3</v>
       </c>
       <c r="E108" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击确定进入设置中打开麦克风权限，回到房间&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击确定进入设置中打开麦克风权限，回到房间
 </v>
       </c>
       <c r="F108" t="str">
-        <v>&lt;p&gt;
-	弹框消失，授权成功，扬声器切换显示开音状态&lt;/p&gt;
+        <v>
+	弹框消失，授权成功，扬声器切换显示开音状态
 </v>
       </c>
     </row>
@@ -1643,20 +1528,16 @@
       <c r="A110" t="str">
         <v>语音房-授权失败上麦再次授权（手机支持再次授权）</v>
       </c>
-      <c r="B110" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C110" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B110" t="str"/>
+      <c r="C110" t="str"/>
       <c r="D110" t="str">
         <v>1</v>
       </c>
       <c r="E110" t="str">
-        <v>&lt;p&gt;手机支持再次授权，授权失败后点击上麦&lt;/p&gt;</v>
+        <v>手机支持再次授权，授权失败后点击上麦</v>
       </c>
       <c r="F110" t="str">
-        <v>&lt;p&gt;弹出授权弹框&lt;/p&gt;</v>
+        <v>弹出授权弹框</v>
       </c>
     </row>
     <row r="111">
@@ -1664,14 +1545,14 @@
         <v>2</v>
       </c>
       <c r="E111" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击取消&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击取消
 </v>
       </c>
       <c r="F111" t="str">
-        <v>&lt;p&gt;
-	授权失败，显示关麦状态，用户正常上麦，说话房间内用户听不见声音&lt;/p&gt;
+        <v>
+	授权失败，显示关麦状态，用户正常上麦，说话房间内用户听不见声音
 </v>
       </c>
     </row>
@@ -1680,14 +1561,14 @@
         <v>3</v>
       </c>
       <c r="E112" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击确定&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击确定
 </v>
       </c>
       <c r="F112" t="str">
-        <v>&lt;p&gt;
-	授权成功，显示开麦状态，用户正常上麦，说话房间内用户可听见声音&lt;/p&gt;
+        <v>
+	授权成功，显示开麦状态，用户正常上麦，说话房间内用户可听见声音
 </v>
       </c>
     </row>
@@ -1697,8 +1578,8 @@
         <v>语音房-授权失败上麦再次授权（手机不支持再次授权）</v>
       </c>
       <c r="B114" t="str">
-        <v>&lt;p&gt;
-	iOS-fultter版初次请求授权拒绝后提示自行设置&lt;/p&gt;
+        <v>
+	iOS-fultter版初次请求授权拒绝后提示自行设置
 </v>
       </c>
       <c r="C114" t="str"/>
@@ -1706,12 +1587,12 @@
         <v>1</v>
       </c>
       <c r="E114" t="str">
-        <v>&lt;p&gt;手机不支持再次授权，授权失败后点击上麦&lt;/p&gt;</v>
+        <v>手机不支持再次授权，授权失败后点击上麦</v>
       </c>
       <c r="F114" t="str">
-        <v>&lt;p&gt;弹出引导开启提示弹窗
+        <v>弹出引导开启提示弹窗
 文案："追读小说"需要你的麦克风权限方可开启声音，请至设置中打开
-下方显示：取消和确定选项&lt;/p&gt;</v>
+下方显示：取消和确定选项</v>
       </c>
     </row>
     <row r="115">
@@ -1719,14 +1600,14 @@
         <v>2</v>
       </c>
       <c r="E115" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击取消&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击取消
 </v>
       </c>
       <c r="F115" t="str">
-        <v>&lt;p&gt;
-	关闭弹窗，未授权成功，用户正常上麦，显示关麦状态，说话房间内用户听不见声音&lt;/p&gt;
+        <v>
+	关闭弹窗，未授权成功，用户正常上麦，显示关麦状态，说话房间内用户听不见声音
 </v>
       </c>
     </row>
@@ -1735,14 +1616,14 @@
         <v>3</v>
       </c>
       <c r="E116" t="str">
-        <v>&lt;p&gt;
-	继步骤&lt;br /&gt;
-	1，点击确定进入设置中打开麦克风权限，回到房间&lt;/p&gt;
+        <v>
+	继步骤
+	1，点击确定进入设置中打开麦克风权限，回到房间
 </v>
       </c>
       <c r="F116" t="str">
-        <v>&lt;p&gt;
-	弹框消失，授权成功，用户正常上麦，显示开麦状态，说话房间内用户可听见声音&lt;/p&gt;
+        <v>
+	弹框消失，授权成功，用户正常上麦，显示开麦状态，说话房间内用户可听见声音
 </v>
       </c>
     </row>
@@ -1752,8 +1633,8 @@
         <v>语音房-授权失败排队再次授权（手机支持再次授权）</v>
       </c>
       <c r="B118" t="str">
-        <v>&lt;p&gt;
-	iOS-fultter版本首次请求权限，不允许后提示自行设置&lt;/p&gt;
+        <v>
+	iOS-fultter版本首次请求权限，不允许后提示自行设置
 </v>
       </c>
       <c r="C118" t="str"/>
@@ -1761,13 +1642,13 @@
         <v>1</v>
       </c>
       <c r="E118" t="str">
-        <v>&lt;p&gt;
-	手机支持再次授权，授权失败后点击排麦&lt;/p&gt;
+        <v>
+	手机支持再次授权，授权失败后点击排麦
 </v>
       </c>
       <c r="F118" t="str">
-        <v>&lt;p&gt;
-	弹出授权弹框&lt;/p&gt;
+        <v>
+	弹出授权弹框
 </v>
       </c>
     </row>
@@ -1776,10 +1657,10 @@
         <v>2</v>
       </c>
       <c r="E119" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击取消&lt;/p&gt;</v>
+        <v>继步骤1，点击取消</v>
       </c>
       <c r="F119" t="str">
-        <v>&lt;p&gt;授权失败，可正常排队，上麦后，显示关麦状态，说话对方听不见声音&lt;/p&gt;</v>
+        <v>授权失败，可正常排队，上麦后，显示关麦状态，说话对方听不见声音</v>
       </c>
     </row>
     <row r="120">
@@ -1787,10 +1668,10 @@
         <v>3</v>
       </c>
       <c r="E120" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击确定&lt;/p&gt;</v>
+        <v>继步骤1，点击确定</v>
       </c>
       <c r="F120" t="str">
-        <v>&lt;p&gt;授权成功，可正常排队，上麦后，显示开麦状态，说话对方可听见声音&lt;/p&gt;</v>
+        <v>授权成功，可正常排队，上麦后，显示开麦状态，说话对方可听见声音</v>
       </c>
     </row>
     <row r="121"/>
@@ -1799,8 +1680,8 @@
         <v>语音房-授权失败排队再次授权（手机不支持再次授权）</v>
       </c>
       <c r="B122" t="str">
-        <v>&lt;p&gt;
-	iOS-fultter版本首次请求权限，不允许后提示自行设置&lt;/p&gt;
+        <v>
+	iOS-fultter版本首次请求权限，不允许后提示自行设置
 </v>
       </c>
       <c r="C122" t="str"/>
@@ -1808,13 +1689,13 @@
         <v>1</v>
       </c>
       <c r="E122" t="str">
-        <v>&lt;p&gt;
-	手机不支持再次授权，授权失败后点击排麦&lt;/p&gt;
+        <v>
+	手机不支持再次授权，授权失败后点击排麦
 </v>
       </c>
       <c r="F122" t="str">
-        <v>&lt;p&gt;
-	弹出引导开启提示弹窗 文案：&amp;quot;追读小说&amp;quot;需要你的麦克风权限方可开启声音，请至设置中打开 下方显示：取消和确定选项&lt;/p&gt;
+        <v>
+	弹出引导开启提示弹窗 文案：追读小说需要你的麦克风权限方可开启声音，请至设置中打开 下方显示：取消和确定选项
 </v>
       </c>
     </row>
@@ -1823,10 +1704,10 @@
         <v>2</v>
       </c>
       <c r="E123" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击取消&lt;/p&gt;</v>
+        <v>继步骤1，点击取消</v>
       </c>
       <c r="F123" t="str">
-        <v>&lt;p&gt;关闭弹窗，未授权成功，可正常排队，上麦后，显示关麦状态，说话对方听不见声音&lt;/p&gt;</v>
+        <v>关闭弹窗，未授权成功，可正常排队，上麦后，显示关麦状态，说话对方听不见声音</v>
       </c>
     </row>
     <row r="124">
@@ -1834,10 +1715,10 @@
         <v>3</v>
       </c>
       <c r="E124" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击确定进入设置中打开麦克风权限，回到房间&lt;/p&gt;</v>
+        <v>继步骤1，点击确定进入设置中打开麦克风权限，回到房间</v>
       </c>
       <c r="F124" t="str">
-        <v>&lt;p&gt;弹框消失，授权成功，可正常排队，上麦后，显示开麦状态，说话对方可听见声音&lt;/p&gt;</v>
+        <v>弹框消失，授权成功，可正常排队，上麦后，显示开麦状态，说话对方可听见声音</v>
       </c>
     </row>
     <row r="125"/>
@@ -1845,21 +1726,17 @@
       <c r="A126" t="str">
         <v>语音房-登录</v>
       </c>
-      <c r="B126" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C126" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B126" t="str"/>
+      <c r="C126" t="str"/>
       <c r="D126" t="str">
         <v>1</v>
       </c>
       <c r="E126" t="str">
-        <v>&lt;p&gt;游客未登录时点击座位、发言、送礼，弹出登录提示&lt;/p&gt;</v>
+        <v>游客未登录时点击座位、发言、送礼，弹出登录提示</v>
       </c>
       <c r="F126" t="str">
-        <v>&lt;p&gt;显示：请先登录
-有微信和手机登录两个选项&lt;/p&gt;</v>
+        <v>显示：请先登录
+有微信和手机登录两个选项</v>
       </c>
     </row>
     <row r="127">
@@ -1867,10 +1744,10 @@
         <v>2</v>
       </c>
       <c r="E127" t="str">
-        <v>&lt;p&gt;点击手机登录&lt;/p&gt;</v>
+        <v>点击手机登录</v>
       </c>
       <c r="F127" t="str">
-        <v>&lt;p&gt;拉起手机登录界面&lt;/p&gt;</v>
+        <v>拉起手机登录界面</v>
       </c>
     </row>
     <row r="128">
@@ -1878,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="E128" t="str">
-        <v>&lt;p&gt;点击微信登录&lt;/p&gt;</v>
+        <v>点击微信登录</v>
       </c>
       <c r="F128" t="str">
-        <v>&lt;p&gt;拉起微信登录&lt;/p&gt;</v>
+        <v>拉起微信登录</v>
       </c>
     </row>
     <row r="129">
@@ -1889,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="E129" t="str">
-        <v>&lt;p&gt;继步骤2&lt;br&gt;3，登录成功后点击座位、发言、送礼&lt;/p&gt;</v>
+        <v>继步骤23，登录成功后点击座位、发言、送礼</v>
       </c>
       <c r="F129" t="str">
-        <v>&lt;p&gt;可正常操作&lt;/p&gt;</v>
+        <v>可正常操作</v>
       </c>
     </row>
     <row r="130"/>
@@ -1900,20 +1777,16 @@
       <c r="A131" t="str">
         <v>语音房-网络异常</v>
       </c>
-      <c r="B131" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C131" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B131" t="str"/>
+      <c r="C131" t="str"/>
       <c r="D131" t="str">
         <v>1</v>
       </c>
       <c r="E131" t="str">
-        <v>&lt;p&gt;进入房间后，断开网络，点击上麦、排麦、发言、送礼&lt;/p&gt;</v>
+        <v>进入房间后，断开网络，点击上麦、排麦、发言、送礼</v>
       </c>
       <c r="F131" t="str">
-        <v>&lt;p&gt;有网络异常提示，提示“网络似乎开小差了”，送礼钻石无扣除&lt;/p&gt;</v>
+        <v>有网络异常提示，提示“网络似乎开小差了”，送礼钻石无扣除</v>
       </c>
     </row>
     <row r="132">
@@ -1921,11 +1794,11 @@
         <v>2</v>
       </c>
       <c r="E132" t="str">
-        <v>&lt;p&gt;进入房间后，连接弱网，点击上麦、排麦、发言、送礼&lt;/p&gt;</v>
+        <v>进入房间后，连接弱网，点击上麦、排麦、发言、送礼</v>
       </c>
       <c r="F132" t="str">
-        <v>&lt;p&gt;提示“网络似乎开小差了”
-或可正常操作&lt;/p&gt;</v>
+        <v>提示“网络似乎开小差了”
+或可正常操作</v>
       </c>
     </row>
     <row r="133">
@@ -1933,10 +1806,10 @@
         <v>3</v>
       </c>
       <c r="E133" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，2恢复正常网络，点击上麦、排麦、发言、送礼&lt;/p&gt;</v>
+        <v>继步骤1，2恢复正常网络，点击上麦、排麦、发言、送礼</v>
       </c>
       <c r="F133" t="str">
-        <v>&lt;p&gt;操作正常，无网络提示&lt;/p&gt;</v>
+        <v>操作正常，无网络提示</v>
       </c>
     </row>
     <row r="134"/>
@@ -1944,20 +1817,16 @@
       <c r="A135" t="str">
         <v>语音房-不同网络</v>
       </c>
-      <c r="B135" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C135" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B135" t="str"/>
+      <c r="C135" t="str"/>
       <c r="D135" t="str">
         <v>1</v>
       </c>
       <c r="E135" t="str">
-        <v>&lt;p&gt;wifi下进入房间，操作上麦、排麦、发言、送礼&lt;/p&gt;</v>
+        <v>wifi下进入房间，操作上麦、排麦、发言、送礼</v>
       </c>
       <c r="F135" t="str">
-        <v>&lt;p&gt;操作正常&lt;/p&gt;</v>
+        <v>操作正常</v>
       </c>
     </row>
     <row r="136">
@@ -1965,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="E136" t="str">
-        <v>&lt;p&gt;切换4G网络，进入房间，操作上麦、排麦、发言、送礼&lt;/p&gt;</v>
+        <v>切换4G网络，进入房间，操作上麦、排麦、发言、送礼</v>
       </c>
       <c r="F136" t="str">
-        <v>&lt;p&gt;操作正常&lt;/p&gt;</v>
+        <v>操作正常</v>
       </c>
     </row>
     <row r="137"/>
@@ -1976,22 +1845,18 @@
       <c r="A138" t="str">
         <v>语音房-微信账号被踢</v>
       </c>
-      <c r="B138" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C138" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B138" t="str"/>
+      <c r="C138" t="str"/>
       <c r="D138" t="str">
         <v>1</v>
       </c>
       <c r="E138" t="str">
-        <v>&lt;p&gt;语音房间内，微信账户在其他设备中登录&lt;/p&gt;</v>
+        <v>语音房间内，微信账户在其他设备中登录</v>
       </c>
       <c r="F138" t="str">
-        <v>&lt;p&gt;提示用户被登出
+        <v>提示用户被登出
 显示：您的账号在别处登录，您被迫下线，若非本人操作，请即时登录修改密码
-下方显示选项：重新登录、我知道了&lt;/p&gt;</v>
+下方显示选项：重新登录、我知道了</v>
       </c>
     </row>
     <row r="139">
@@ -1999,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击重新登录&lt;/p&gt;</v>
+        <v>继步骤1，点击重新登录</v>
       </c>
       <c r="F139" t="str">
-        <v>&lt;p&gt;跳转进入登录界面&lt;/p&gt;</v>
+        <v>跳转进入登录界面</v>
       </c>
     </row>
     <row r="140">
@@ -2010,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="E140" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击我知道了&lt;/p&gt;</v>
+        <v>继步骤1，点击我知道了</v>
       </c>
       <c r="F140" t="str">
-        <v>&lt;p&gt;退出当前帐号，留在当前页面&lt;/p&gt;</v>
+        <v>退出当前帐号，留在当前页面</v>
       </c>
     </row>
     <row r="141"/>
@@ -2021,22 +1886,18 @@
       <c r="A142" t="str">
         <v>语音房-手机账号被踢</v>
       </c>
-      <c r="B142" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C142" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B142" t="str"/>
+      <c r="C142" t="str"/>
       <c r="D142" t="str">
         <v>1</v>
       </c>
       <c r="E142" t="str">
-        <v>&lt;p&gt;语音房间内，手机账户在其他设备中登录&lt;/p&gt;</v>
+        <v>语音房间内，手机账户在其他设备中登录</v>
       </c>
       <c r="F142" t="str">
-        <v>&lt;p&gt;提示用户被登出
+        <v>提示用户被登出
 显示：您的账号在别处登录，您被迫下线，若非本人操作，请即时登录修改密码
-下方显示选项：重新登录、我知道了&lt;/p&gt;</v>
+下方显示选项：重新登录、我知道了</v>
       </c>
     </row>
     <row r="143">
@@ -2044,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击重新登录&lt;/p&gt;</v>
+        <v>继步骤1，点击重新登录</v>
       </c>
       <c r="F143" t="str">
-        <v>&lt;p&gt;跳转进入登录界面&lt;/p&gt;</v>
+        <v>跳转进入登录界面</v>
       </c>
     </row>
     <row r="144">
@@ -2055,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="E144" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;1，点击我知道了&lt;/p&gt;</v>
+        <v>继步骤1，点击我知道了</v>
       </c>
       <c r="F144" t="str">
-        <v>&lt;p&gt;退出当前帐号，留在当前页面&lt;/p&gt;</v>
+        <v>退出当前帐号，留在当前页面</v>
       </c>
     </row>
     <row r="145"/>
@@ -2066,20 +1927,16 @@
       <c r="A146" t="str">
         <v>语音房-账号被踢后返回</v>
       </c>
-      <c r="B146" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C146" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B146" t="str"/>
+      <c r="C146" t="str"/>
       <c r="D146" t="str">
         <v>1</v>
       </c>
       <c r="E146" t="str">
-        <v>&lt;p&gt;账号被踢，点击重新登录后，再点击返回按钮&lt;/p&gt;</v>
+        <v>账号被踢，点击重新登录后，再点击返回按钮</v>
       </c>
       <c r="F146" t="str">
-        <v>&lt;p&gt;回到跳转前的页面&lt;/p&gt;</v>
+        <v>回到跳转前的页面</v>
       </c>
     </row>
   </sheetData>
